--- a/ÈýÔªÃÅÕï×¡Ôº¸ö°¸Êý¾ÝÊÕ¼¯±í£¨Íê£©ÐÂ.xlsx
+++ b/ÈýÔªÃÅÕï×¡Ôº¸ö°¸Êý¾ÝÊÕ¼¯±í£¨Íê£©ÐÂ.xlsx
@@ -10,10 +10,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="0000\-00\-00"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -377,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV863"/>
+  <dimension ref="A1:BV856"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -92893,6 +92891,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A1:BG1"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AQ4:AT4"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="BF4:BF5"/>
     <mergeCell ref="BG4:BG5"/>
@@ -92909,53 +92950,10 @@
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A1:BG1"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BV863"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BV856"/>
   </ignoredErrors>
 </worksheet>
 </file>